--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>354942.6845238004</v>
+        <v>353018.0809569426</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3180051.965155032</v>
+        <v>3180051.965155033</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>38.70518967089871</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>276.1565137023555</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>40.21094638714998</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>43.2135776814569</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
         <v>170.2839726213331</v>
@@ -792,16 +792,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>78.05336090392365</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.6773952840984226</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>341.8733101690336</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>100.4925210601221</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>341.8733101690328</v>
       </c>
       <c r="G5" t="n">
-        <v>112.0865333069886</v>
+        <v>341.8733101690328</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>196.2804842470834</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>200.6294905367619</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>341.8733101690328</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>341.8733101690336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>160.9975449623052</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>96.65700587676827</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>87.92595927923675</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>168.023804751134</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.3706418758996</v>
       </c>
       <c r="U6" t="n">
         <v>225.9284209250621</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>247.193523752326</v>
+        <v>247.1935237523251</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>107.87841402786</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>154.4568055229666</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>147.1283719057546</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1534,13 +1534,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>104.4356141147657</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
     </row>
     <row r="14">
@@ -1774,10 +1774,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>144.0665460527105</v>
+        <v>143.3158222056513</v>
       </c>
     </row>
     <row r="17">
@@ -1895,7 +1895,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>176.8688121773845</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>43.87602766265805</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2135,7 +2135,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>106.233241343826</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>169.7438101404422</v>
       </c>
     </row>
     <row r="23">
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>161.4308946390849</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>148.8457355557755</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>130.21438747536</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>128.0328771037168</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>127.0199624800789</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>91.56326686094044</v>
       </c>
       <c r="S25" t="n">
         <v>179.5197244407509</v>
@@ -2530,19 +2530,19 @@
         <v>203.1464755155369</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>267.836266855725</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>233.7365577809757</v>
       </c>
       <c r="W25" t="n">
-        <v>246.4427917745483</v>
+        <v>268.1219127937387</v>
       </c>
       <c r="X25" t="n">
-        <v>207.3085698461848</v>
+        <v>87.853646774127</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>200.1835678092424</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274077</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>161.430894639085</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>130.21438747536</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>127.0199624800789</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>148.0924829205252</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>130.5127428246838</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,22 +2764,22 @@
         <v>179.5197244407509</v>
       </c>
       <c r="T28" t="n">
-        <v>73.33536919398949</v>
+        <v>203.1464755155369</v>
       </c>
       <c r="U28" t="n">
         <v>267.836266855725</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>233.7365577809757</v>
       </c>
       <c r="W28" t="n">
         <v>268.1219127937387</v>
       </c>
       <c r="X28" t="n">
-        <v>207.3085698461848</v>
+        <v>17.9860189959823</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>200.1835678092424</v>
       </c>
     </row>
     <row r="29">
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>161.430894639085</v>
       </c>
       <c r="C31" t="n">
-        <v>148.8457355557755</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>130.1627713432461</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>127.0199624800789</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>91.56326686094044</v>
       </c>
       <c r="S31" t="n">
         <v>179.5197244407509</v>
@@ -3007,7 +3007,7 @@
         <v>267.836266855725</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>153.0343078790753</v>
       </c>
       <c r="W31" t="n">
         <v>268.1219127937387</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>314.6019515338399</v>
+        <v>314.60195153384</v>
       </c>
       <c r="C35" t="n">
         <v>297.1410016413669</v>
       </c>
       <c r="D35" t="n">
-        <v>286.5511514910421</v>
+        <v>286.5511514910423</v>
       </c>
       <c r="E35" t="n">
-        <v>313.7984799426211</v>
+        <v>313.7984799426212</v>
       </c>
       <c r="F35" t="n">
         <v>338.7441556120708</v>
@@ -3281,10 +3281,10 @@
         <v>343.8326266600508</v>
       </c>
       <c r="H35" t="n">
-        <v>237.155358981677</v>
+        <v>237.1553589816771</v>
       </c>
       <c r="I35" t="n">
-        <v>13.64724492310009</v>
+        <v>13.64724492310013</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>64.81847467555821</v>
+        <v>64.81847467555822</v>
       </c>
       <c r="T35" t="n">
-        <v>140.3508982088612</v>
+        <v>140.3508982088613</v>
       </c>
       <c r="U35" t="n">
         <v>182.9467051201603</v>
       </c>
       <c r="V35" t="n">
-        <v>259.6203683404942</v>
+        <v>259.6203683404943</v>
       </c>
       <c r="W35" t="n">
-        <v>281.1090785877723</v>
+        <v>281.1090785877724</v>
       </c>
       <c r="X35" t="n">
         <v>301.5992105488284</v>
       </c>
       <c r="Y35" t="n">
-        <v>318.1060485264129</v>
+        <v>318.106048526413</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>314.60195153384</v>
+        <v>314.6019515338399</v>
       </c>
       <c r="C38" t="n">
         <v>297.1410016413669</v>
@@ -3509,7 +3509,7 @@
         <v>286.5511514910423</v>
       </c>
       <c r="E38" t="n">
-        <v>313.7984799426212</v>
+        <v>313.7984799426211</v>
       </c>
       <c r="F38" t="n">
         <v>338.7441556120708</v>
@@ -3518,10 +3518,10 @@
         <v>343.8326266600508</v>
       </c>
       <c r="H38" t="n">
-        <v>237.1553589816771</v>
+        <v>237.155358981677</v>
       </c>
       <c r="I38" t="n">
-        <v>13.64724492310015</v>
+        <v>13.6472449231001</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>64.81847467555824</v>
+        <v>64.81847467555819</v>
       </c>
       <c r="T38" t="n">
-        <v>140.3508982088613</v>
+        <v>140.3508982088612</v>
       </c>
       <c r="U38" t="n">
-        <v>182.9467051201593</v>
+        <v>182.9467051201603</v>
       </c>
       <c r="V38" t="n">
-        <v>259.6203683404943</v>
+        <v>259.6203683404942</v>
       </c>
       <c r="W38" t="n">
-        <v>281.1090785877724</v>
+        <v>281.1090785877723</v>
       </c>
       <c r="X38" t="n">
         <v>301.5992105488284</v>
       </c>
       <c r="Y38" t="n">
-        <v>318.106048526413</v>
+        <v>318.1060485264129</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>314.6019515338399</v>
+        <v>314.60195153384</v>
       </c>
       <c r="C41" t="n">
         <v>297.1410016413669</v>
@@ -3746,7 +3746,7 @@
         <v>286.5511514910423</v>
       </c>
       <c r="E41" t="n">
-        <v>313.7984799426211</v>
+        <v>313.7984799426212</v>
       </c>
       <c r="F41" t="n">
         <v>338.7441556120708</v>
@@ -3755,10 +3755,10 @@
         <v>343.8326266600508</v>
       </c>
       <c r="H41" t="n">
-        <v>237.155358981677</v>
+        <v>237.1553589816771</v>
       </c>
       <c r="I41" t="n">
-        <v>13.64724492310009</v>
+        <v>13.64724492310015</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>64.81847467555818</v>
+        <v>64.81847467555693</v>
       </c>
       <c r="T41" t="n">
-        <v>140.3508982088612</v>
+        <v>140.3508982088613</v>
       </c>
       <c r="U41" t="n">
-        <v>182.9467051201603</v>
+        <v>182.9467051201604</v>
       </c>
       <c r="V41" t="n">
-        <v>259.6203683404942</v>
+        <v>259.6203683404943</v>
       </c>
       <c r="W41" t="n">
-        <v>281.1090785877723</v>
+        <v>281.1090785877724</v>
       </c>
       <c r="X41" t="n">
         <v>301.5992105488284</v>
       </c>
       <c r="Y41" t="n">
-        <v>318.1060485264129</v>
+        <v>318.106048526413</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>64.81847467555818</v>
+        <v>64.81847467555821</v>
       </c>
       <c r="T44" t="n">
         <v>140.3508982088612</v>
       </c>
       <c r="U44" t="n">
-        <v>182.9467051201602</v>
+        <v>182.9467051201593</v>
       </c>
       <c r="V44" t="n">
         <v>259.6203683404942</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>347.0801464648406</v>
+        <v>44.35312136793682</v>
       </c>
       <c r="C2" t="n">
-        <v>347.0801464648406</v>
+        <v>44.35312136793682</v>
       </c>
       <c r="D2" t="n">
-        <v>347.0801464648406</v>
+        <v>44.35312136793682</v>
       </c>
       <c r="E2" t="n">
-        <v>307.9839952821146</v>
+        <v>44.35312136793682</v>
       </c>
       <c r="F2" t="n">
-        <v>301.0384945329112</v>
+        <v>37.40762061873335</v>
       </c>
       <c r="G2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618846</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438684</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L2" t="n">
-        <v>344.9085595412869</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173957</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O2" t="n">
         <v>989.7620250901064</v>
@@ -4355,25 +4355,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>1104.626054809422</v>
+        <v>896.7353068029593</v>
       </c>
       <c r="T2" t="n">
-        <v>879.8992409003627</v>
+        <v>896.7353068029593</v>
       </c>
       <c r="U2" t="n">
-        <v>626.0261199015633</v>
+        <v>642.8621858041599</v>
       </c>
       <c r="V2" t="n">
-        <v>626.0261199015633</v>
+        <v>363.9162123674373</v>
       </c>
       <c r="W2" t="n">
-        <v>626.0261199015633</v>
+        <v>323.2990948046595</v>
       </c>
       <c r="X2" t="n">
-        <v>626.0261199015633</v>
+        <v>44.35312136793682</v>
       </c>
       <c r="Y2" t="n">
-        <v>626.0261199015633</v>
+        <v>44.35312136793682</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>510.1693483123309</v>
+        <v>293.964245903103</v>
       </c>
       <c r="C3" t="n">
-        <v>510.1693483123309</v>
+        <v>293.964245903103</v>
       </c>
       <c r="D3" t="n">
-        <v>466.5192698462128</v>
+        <v>293.964245903103</v>
       </c>
       <c r="E3" t="n">
-        <v>307.2818148407573</v>
+        <v>134.7267908976475</v>
       </c>
       <c r="F3" t="n">
-        <v>160.7472568676423</v>
+        <v>134.7267908976475</v>
       </c>
       <c r="G3" t="n">
-        <v>22.09252109618844</v>
+        <v>134.7267908976475</v>
       </c>
       <c r="H3" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J3" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K3" t="n">
-        <v>28.39914141318535</v>
+        <v>121.6947060708167</v>
       </c>
       <c r="L3" t="n">
-        <v>274.5546080058863</v>
+        <v>367.8501726635176</v>
       </c>
       <c r="M3" t="n">
-        <v>288.9361218459458</v>
+        <v>641.2451212288495</v>
       </c>
       <c r="N3" t="n">
-        <v>562.3310704112777</v>
+        <v>641.2451212288495</v>
       </c>
       <c r="O3" t="n">
-        <v>828.8278839945615</v>
+        <v>907.7419348121333</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="S3" t="n">
-        <v>932.6220420606005</v>
+        <v>836.17674519153</v>
       </c>
       <c r="T3" t="n">
-        <v>932.6220420606005</v>
+        <v>836.17674519153</v>
       </c>
       <c r="U3" t="n">
-        <v>932.6220420606005</v>
+        <v>607.9581328256777</v>
       </c>
       <c r="V3" t="n">
-        <v>932.6220420606005</v>
+        <v>372.806024593935</v>
       </c>
       <c r="W3" t="n">
-        <v>678.3846853323989</v>
+        <v>372.806024593935</v>
       </c>
       <c r="X3" t="n">
-        <v>678.3846853323989</v>
+        <v>293.964245903103</v>
       </c>
       <c r="Y3" t="n">
-        <v>678.3846853323989</v>
+        <v>293.964245903103</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492715</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160687</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N4" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754623</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.77675875689391</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.77675875689391</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="U4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="V4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="W4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>691.103777404247</v>
+        <v>819.5106137005808</v>
       </c>
       <c r="C5" t="n">
-        <v>691.103777404247</v>
+        <v>819.5106137005808</v>
       </c>
       <c r="D5" t="n">
-        <v>345.7772014759302</v>
+        <v>819.5106137005808</v>
       </c>
       <c r="E5" t="n">
-        <v>345.7772014759302</v>
+        <v>718.0030166701545</v>
       </c>
       <c r="F5" t="n">
-        <v>338.8317007267268</v>
+        <v>372.6764407418386</v>
       </c>
       <c r="G5" t="n">
-        <v>225.612980214617</v>
+        <v>27.34986481352262</v>
       </c>
       <c r="H5" t="n">
-        <v>225.612980214617</v>
+        <v>27.34986481352262</v>
       </c>
       <c r="I5" t="n">
-        <v>27.34986481352269</v>
+        <v>27.34986481352262</v>
       </c>
       <c r="J5" t="n">
-        <v>46.45889488082003</v>
+        <v>46.4588948808198</v>
       </c>
       <c r="K5" t="n">
-        <v>195.843181694346</v>
+        <v>195.8431816943454</v>
       </c>
       <c r="L5" t="n">
-        <v>433.4442264909784</v>
+        <v>433.4442264909774</v>
       </c>
       <c r="M5" t="n">
-        <v>714.4277151203069</v>
+        <v>714.4277151203053</v>
       </c>
       <c r="N5" t="n">
-        <v>985.3258128090381</v>
+        <v>985.3258128090358</v>
       </c>
       <c r="O5" t="n">
-        <v>1195.939566860207</v>
+        <v>1195.939566860205</v>
       </c>
       <c r="P5" t="n">
-        <v>1338.019150313932</v>
+        <v>1338.019150313929</v>
       </c>
       <c r="Q5" t="n">
-        <v>1367.493240676135</v>
+        <v>1367.493240676131</v>
       </c>
       <c r="R5" t="n">
-        <v>1367.493240676135</v>
+        <v>1367.493240676131</v>
       </c>
       <c r="S5" t="n">
-        <v>1367.493240676135</v>
+        <v>1164.837189628897</v>
       </c>
       <c r="T5" t="n">
-        <v>1367.493240676135</v>
+        <v>1164.837189628897</v>
       </c>
       <c r="U5" t="n">
-        <v>1367.493240676135</v>
+        <v>1164.837189628897</v>
       </c>
       <c r="V5" t="n">
-        <v>1036.430353332564</v>
+        <v>1164.837189628897</v>
       </c>
       <c r="W5" t="n">
-        <v>1036.430353332564</v>
+        <v>819.5106137005808</v>
       </c>
       <c r="X5" t="n">
-        <v>1036.430353332564</v>
+        <v>819.5106137005808</v>
       </c>
       <c r="Y5" t="n">
-        <v>691.103777404247</v>
+        <v>819.5106137005808</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>273.9176137442369</v>
+        <v>27.34986481352262</v>
       </c>
       <c r="C6" t="n">
-        <v>273.9176137442369</v>
+        <v>27.34986481352262</v>
       </c>
       <c r="D6" t="n">
-        <v>124.9832040829856</v>
+        <v>27.34986481352262</v>
       </c>
       <c r="E6" t="n">
-        <v>124.9832040829856</v>
+        <v>27.34986481352262</v>
       </c>
       <c r="F6" t="n">
-        <v>124.9832040829856</v>
+        <v>27.34986481352262</v>
       </c>
       <c r="G6" t="n">
-        <v>27.34986481352269</v>
+        <v>27.34986481352262</v>
       </c>
       <c r="H6" t="n">
-        <v>27.34986481352269</v>
+        <v>27.34986481352262</v>
       </c>
       <c r="I6" t="n">
-        <v>27.34986481352269</v>
+        <v>27.34986481352262</v>
       </c>
       <c r="J6" t="n">
-        <v>27.34986481352269</v>
+        <v>45.03769252864025</v>
       </c>
       <c r="K6" t="n">
-        <v>184.2020227692171</v>
+        <v>201.8898504843344</v>
       </c>
       <c r="L6" t="n">
-        <v>456.5135021860198</v>
+        <v>474.2013299011367</v>
       </c>
       <c r="M6" t="n">
-        <v>794.968079253363</v>
+        <v>714.8600244863155</v>
       </c>
       <c r="N6" t="n">
-        <v>1133.422656320706</v>
+        <v>1053.314601553658</v>
       </c>
       <c r="O6" t="n">
-        <v>1147.605777858207</v>
+        <v>1053.314601553658</v>
       </c>
       <c r="P6" t="n">
-        <v>1367.493240676135</v>
+        <v>1273.202064371585</v>
       </c>
       <c r="Q6" t="n">
-        <v>1367.493240676135</v>
+        <v>1367.493240676131</v>
       </c>
       <c r="R6" t="n">
-        <v>1367.493240676135</v>
+        <v>1278.679140394074</v>
       </c>
       <c r="S6" t="n">
-        <v>1367.493240676135</v>
+        <v>1108.958125493938</v>
       </c>
       <c r="T6" t="n">
-        <v>1367.493240676135</v>
+        <v>907.5736387506056</v>
       </c>
       <c r="U6" t="n">
-        <v>1139.282714489203</v>
+        <v>679.3631125636742</v>
       </c>
       <c r="V6" t="n">
-        <v>904.1306062574604</v>
+        <v>444.2110043319315</v>
       </c>
       <c r="W6" t="n">
-        <v>649.8932495292588</v>
+        <v>189.9736476037299</v>
       </c>
       <c r="X6" t="n">
-        <v>649.8932495292588</v>
+        <v>189.9736476037299</v>
       </c>
       <c r="Y6" t="n">
-        <v>442.1329507643049</v>
+        <v>189.9736476037299</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27.34986481352269</v>
+        <v>27.34986481352262</v>
       </c>
       <c r="C7" t="n">
-        <v>27.34986481352269</v>
+        <v>27.34986481352262</v>
       </c>
       <c r="D7" t="n">
-        <v>27.34986481352269</v>
+        <v>27.34986481352262</v>
       </c>
       <c r="E7" t="n">
-        <v>27.34986481352269</v>
+        <v>27.34986481352262</v>
       </c>
       <c r="F7" t="n">
-        <v>27.34986481352269</v>
+        <v>27.34986481352262</v>
       </c>
       <c r="G7" t="n">
-        <v>27.34986481352269</v>
+        <v>27.34986481352262</v>
       </c>
       <c r="H7" t="n">
-        <v>27.34986481352269</v>
+        <v>27.34986481352262</v>
       </c>
       <c r="I7" t="n">
-        <v>27.34986481352269</v>
+        <v>27.34986481352262</v>
       </c>
       <c r="J7" t="n">
-        <v>27.34986481352269</v>
+        <v>27.34986481352262</v>
       </c>
       <c r="K7" t="n">
-        <v>27.34986481352269</v>
+        <v>27.34986481352262</v>
       </c>
       <c r="L7" t="n">
-        <v>78.97414292953546</v>
+        <v>78.97414292953522</v>
       </c>
       <c r="M7" t="n">
-        <v>143.7938290394789</v>
+        <v>143.7938290394785</v>
       </c>
       <c r="N7" t="n">
-        <v>212.5068643147031</v>
+        <v>212.5068643147024</v>
       </c>
       <c r="O7" t="n">
-        <v>259.958178403916</v>
+        <v>259.9581784039152</v>
       </c>
       <c r="P7" t="n">
-        <v>277.0402928461752</v>
+        <v>277.0402928461742</v>
       </c>
       <c r="Q7" t="n">
-        <v>277.0402928461752</v>
+        <v>277.0402928461742</v>
       </c>
       <c r="R7" t="n">
-        <v>277.0402928461752</v>
+        <v>277.0402928461742</v>
       </c>
       <c r="S7" t="n">
-        <v>277.0402928461752</v>
+        <v>277.0402928461742</v>
       </c>
       <c r="T7" t="n">
-        <v>277.0402928461752</v>
+        <v>277.0402928461742</v>
       </c>
       <c r="U7" t="n">
-        <v>277.0402928461752</v>
+        <v>277.0402928461742</v>
       </c>
       <c r="V7" t="n">
-        <v>27.34986481352269</v>
+        <v>27.34986481352262</v>
       </c>
       <c r="W7" t="n">
-        <v>27.34986481352269</v>
+        <v>27.34986481352262</v>
       </c>
       <c r="X7" t="n">
-        <v>27.34986481352269</v>
+        <v>27.34986481352262</v>
       </c>
       <c r="Y7" t="n">
-        <v>27.34986481352269</v>
+        <v>27.34986481352262</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1273.280804219765</v>
+        <v>1470.569074795015</v>
       </c>
       <c r="C8" t="n">
-        <v>1164.312709242129</v>
+        <v>1101.606557854603</v>
       </c>
       <c r="D8" t="n">
-        <v>806.0470106353782</v>
+        <v>1101.606557854603</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>1101.606557854603</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>690.6206530649958</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X8" t="n">
-        <v>2050.019976259699</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y8" t="n">
-        <v>1659.880644283887</v>
+        <v>1857.168914859137</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,22 +4881,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>184.027325963587</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C10" t="n">
-        <v>184.027325963587</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>184.027325963587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>184.027325963587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005476</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="W10" t="n">
-        <v>184.027325963587</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="X10" t="n">
-        <v>184.027325963587</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y10" t="n">
-        <v>184.027325963587</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="11">
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M12" t="n">
-        <v>1124.115218311523</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N12" t="n">
-        <v>1453.977845975556</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.78763177146</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655734</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286129</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X13" t="n">
-        <v>560.1954542207687</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y13" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5255,19 +5255,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822463</v>
@@ -5285,40 +5285,40 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,19 +5355,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>177.1795914149474</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>326.2492756170072</v>
       </c>
       <c r="L15" t="n">
-        <v>563.7235867775518</v>
+        <v>940.1463453738959</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170013</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
         <v>2331.418122136705</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028587</v>
@@ -5437,10 +5437,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V16" t="n">
-        <v>1075.21084526296</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W16" t="n">
-        <v>785.7936752259996</v>
+        <v>241.980548233671</v>
       </c>
       <c r="X16" t="n">
-        <v>557.8041243279822</v>
+        <v>241.980548233671</v>
       </c>
       <c r="Y16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5528,13 +5528,13 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
@@ -5546,7 +5546,7 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
@@ -5592,28 +5592,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>410.874530133163</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1024.771599890052</v>
       </c>
       <c r="M18" t="n">
-        <v>1689.561836756086</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N18" t="n">
-        <v>2019.424464420119</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>2298.964529638816</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
         <v>97.21709146028587</v>
@@ -5671,16 +5671,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1343.521947258457</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1119.736532047963</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1119.736532047963</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V19" t="n">
-        <v>865.0520438420759</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="W19" t="n">
-        <v>865.0520438420759</v>
+        <v>496.6650364395578</v>
       </c>
       <c r="X19" t="n">
-        <v>637.0624929440586</v>
+        <v>496.6650364395578</v>
       </c>
       <c r="Y19" t="n">
-        <v>416.2699138005285</v>
+        <v>275.8724572960277</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5750,7 +5750,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514094</v>
@@ -5783,13 +5783,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5835,22 +5835,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>698.8634468392142</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1006.183580119176</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1336.046207783209</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>2005.509969085868</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>692.5547804049818</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>692.5547804049818</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028587</v>
@@ -5908,16 +5908,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557903</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>1391.6099661702</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W22" t="n">
-        <v>1102.192796133239</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X22" t="n">
-        <v>874.2032452352215</v>
+        <v>268.6754855415406</v>
       </c>
       <c r="Y22" t="n">
-        <v>874.2032452352215</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,7 +6005,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6078,16 +6078,16 @@
         <v>1103.683698656582</v>
       </c>
       <c r="N24" t="n">
-        <v>1453.977845975556</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>636.7251345056709</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>486.3759066715543</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>354.8462223530088</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>225.5200838644059</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6145,16 +6145,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>127.8168586116196</v>
+        <v>127.8168586116195</v>
       </c>
       <c r="K25" t="n">
-        <v>296.2193375436548</v>
+        <v>296.2193375436547</v>
       </c>
       <c r="L25" t="n">
-        <v>562.1484572422079</v>
+        <v>562.1484572422078</v>
       </c>
       <c r="M25" t="n">
-        <v>851.9322746968145</v>
+        <v>851.9322746968144</v>
       </c>
       <c r="N25" t="n">
         <v>1140.693458411786</v>
@@ -6169,28 +6169,28 @@
         <v>1644.652868057293</v>
       </c>
       <c r="R25" t="n">
-        <v>1644.652868057293</v>
+        <v>1552.164719712908</v>
       </c>
       <c r="S25" t="n">
-        <v>1463.319813066635</v>
+        <v>1370.831664722251</v>
       </c>
       <c r="T25" t="n">
-        <v>1258.121352949931</v>
+        <v>1165.633204605547</v>
       </c>
       <c r="U25" t="n">
-        <v>1258.121352949931</v>
+        <v>895.0915209128956</v>
       </c>
       <c r="V25" t="n">
-        <v>1258.121352949931</v>
+        <v>658.993987800799</v>
       </c>
       <c r="W25" t="n">
-        <v>1009.189240046347</v>
+        <v>388.1637728576287</v>
       </c>
       <c r="X25" t="n">
-        <v>799.7866442421204</v>
+        <v>299.4227155100257</v>
       </c>
       <c r="Y25" t="n">
-        <v>799.7866442421204</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6206,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6245,16 +6245,16 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2520.760934363148</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>638.469188127607</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>638.469188127607</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>506.9395038090615</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>506.9395038090615</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>378.6365114049414</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>229.0481448185523</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>127.8168586116196</v>
+        <v>127.8168586116195</v>
       </c>
       <c r="K28" t="n">
-        <v>296.2193375436548</v>
+        <v>296.2193375436547</v>
       </c>
       <c r="L28" t="n">
-        <v>562.1484572422079</v>
+        <v>562.1484572422078</v>
       </c>
       <c r="M28" t="n">
-        <v>851.932274696814</v>
+        <v>851.9322746968144</v>
       </c>
       <c r="N28" t="n">
-        <v>1140.693458411785</v>
+        <v>1140.693458411786</v>
       </c>
       <c r="O28" t="n">
         <v>1392.785511104606</v>
@@ -6409,25 +6409,25 @@
         <v>1644.652868057293</v>
       </c>
       <c r="S28" t="n">
-        <v>1463.319813066635</v>
+        <v>1463.319813066636</v>
       </c>
       <c r="T28" t="n">
-        <v>1389.243682567656</v>
+        <v>1258.121352949932</v>
       </c>
       <c r="U28" t="n">
-        <v>1118.701998875004</v>
+        <v>987.57966925728</v>
       </c>
       <c r="V28" t="n">
-        <v>1118.701998875004</v>
+        <v>751.4821361451834</v>
       </c>
       <c r="W28" t="n">
-        <v>847.8717839318341</v>
+        <v>480.6519212020128</v>
       </c>
       <c r="X28" t="n">
-        <v>638.469188127607</v>
+        <v>462.4842252464751</v>
       </c>
       <c r="Y28" t="n">
-        <v>638.469188127607</v>
+        <v>260.2786011967353</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,25 +6446,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,22 +6473,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6503,10 +6503,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1321.461721072713</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N30" t="n">
-        <v>1651.324348736746</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O30" t="n">
-        <v>2320.788110039405</v>
+        <v>2292.946699347401</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.810590821615</v>
+        <v>2497.96918012961</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>507.3468585098823</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>356.9976306757657</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>225.5200838644059</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>225.5200838644059</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>127.8168586116196</v>
+        <v>127.8168586116195</v>
       </c>
       <c r="K31" t="n">
-        <v>296.2193375436548</v>
+        <v>296.2193375436547</v>
       </c>
       <c r="L31" t="n">
-        <v>562.1484572422079</v>
+        <v>562.1484572422078</v>
       </c>
       <c r="M31" t="n">
-        <v>851.9322746968146</v>
+        <v>851.9322746968144</v>
       </c>
       <c r="N31" t="n">
         <v>1140.693458411786</v>
       </c>
       <c r="O31" t="n">
-        <v>1392.785511104607</v>
+        <v>1392.785511104606</v>
       </c>
       <c r="P31" t="n">
         <v>1587.602350397713</v>
@@ -6643,28 +6643,28 @@
         <v>1644.652868057293</v>
       </c>
       <c r="R31" t="n">
-        <v>1644.652868057293</v>
+        <v>1552.164719712908</v>
       </c>
       <c r="S31" t="n">
-        <v>1463.319813066635</v>
+        <v>1370.831664722251</v>
       </c>
       <c r="T31" t="n">
-        <v>1258.121352949931</v>
+        <v>1165.633204605547</v>
       </c>
       <c r="U31" t="n">
-        <v>987.5796692572796</v>
+        <v>895.0915209128957</v>
       </c>
       <c r="V31" t="n">
-        <v>987.5796692572796</v>
+        <v>740.5114119441328</v>
       </c>
       <c r="W31" t="n">
-        <v>716.7494543141094</v>
+        <v>469.6811970009624</v>
       </c>
       <c r="X31" t="n">
-        <v>507.3468585098823</v>
+        <v>260.2786011967353</v>
       </c>
       <c r="Y31" t="n">
-        <v>507.3468585098823</v>
+        <v>260.2786011967353</v>
       </c>
     </row>
     <row r="32">
@@ -6692,7 +6692,7 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
@@ -6704,22 +6704,22 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O33" t="n">
-        <v>2227.840212610278</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6835,22 +6835,22 @@
         <v>659.4602391108327</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
@@ -6859,10 +6859,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,13 +6880,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025262</v>
@@ -6898,7 +6898,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
         <v>772.2886129010313</v>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1925.513372462139</v>
+        <v>1925.51337246214</v>
       </c>
       <c r="C35" t="n">
         <v>1625.370946561769</v>
@@ -6923,28 +6923,28 @@
         <v>1018.957177436856</v>
       </c>
       <c r="F35" t="n">
-        <v>676.7913636872897</v>
+        <v>676.79136368729</v>
       </c>
       <c r="G35" t="n">
-        <v>329.4856801922889</v>
+        <v>329.4856801922891</v>
       </c>
       <c r="H35" t="n">
-        <v>89.93481253402931</v>
+        <v>89.93481253402936</v>
       </c>
       <c r="I35" t="n">
-        <v>76.14971665211002</v>
+        <v>76.14971665211003</v>
       </c>
       <c r="J35" t="n">
-        <v>344.8139583742028</v>
+        <v>344.8139583742029</v>
       </c>
       <c r="K35" t="n">
-        <v>868.2168169432324</v>
+        <v>868.2168169432325</v>
       </c>
       <c r="L35" t="n">
-        <v>1569.82097298703</v>
+        <v>1301.118726634087</v>
       </c>
       <c r="M35" t="n">
-        <v>1922.078928549017</v>
+        <v>1653.376682196073</v>
       </c>
       <c r="N35" t="n">
         <v>2448.921803300104</v>
@@ -6980,7 +6980,7 @@
         <v>2564.612362421991</v>
       </c>
       <c r="Y35" t="n">
-        <v>2243.29312148622</v>
+        <v>2243.293121486221</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>104.3328803593266</v>
       </c>
       <c r="I36" t="n">
-        <v>76.14971665211002</v>
+        <v>76.14971665211003</v>
       </c>
       <c r="J36" t="n">
-        <v>242.4709188044723</v>
+        <v>117.6407938174676</v>
       </c>
       <c r="K36" t="n">
-        <v>653.361187648985</v>
+        <v>528.5310626619803</v>
       </c>
       <c r="L36" t="n">
-        <v>900.1263155554491</v>
+        <v>932.5799080533387</v>
       </c>
       <c r="M36" t="n">
-        <v>1207.446448835411</v>
+        <v>1700.9480544458</v>
       </c>
       <c r="N36" t="n">
-        <v>1537.309076499443</v>
+        <v>2030.810682109833</v>
       </c>
       <c r="O36" t="n">
-        <v>2102.374232470039</v>
+        <v>2310.35074732853</v>
       </c>
       <c r="P36" t="n">
-        <v>2307.396713252248</v>
+        <v>2515.373228110739</v>
       </c>
       <c r="Q36" t="n">
         <v>2602.506130567962</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>638.3928643026571</v>
+        <v>638.3928643026574</v>
       </c>
       <c r="C37" t="n">
-        <v>538.2767724147913</v>
+        <v>538.2767724147915</v>
       </c>
       <c r="D37" t="n">
-        <v>456.9802240424966</v>
+        <v>456.9802240424968</v>
       </c>
       <c r="E37" t="n">
-        <v>377.8872215001446</v>
+        <v>377.8872215001448</v>
       </c>
       <c r="F37" t="n">
-        <v>299.8173650422754</v>
+        <v>299.8173650422755</v>
       </c>
       <c r="G37" t="n">
         <v>200.4621344021371</v>
       </c>
       <c r="H37" t="n">
-        <v>118.8642169901214</v>
+        <v>118.8642169901215</v>
       </c>
       <c r="I37" t="n">
-        <v>76.14971665211002</v>
+        <v>76.14971665211003</v>
       </c>
       <c r="J37" t="n">
-        <v>155.9829803443641</v>
+        <v>155.9829803443643</v>
       </c>
       <c r="K37" t="n">
-        <v>373.6189558173198</v>
+        <v>373.6189558173199</v>
       </c>
       <c r="L37" t="n">
         <v>688.7815720567933</v>
@@ -7114,7 +7114,7 @@
         <v>1911.16945137598</v>
       </c>
       <c r="Q37" t="n">
-        <v>2017.453465576481</v>
+        <v>2017.45346557648</v>
       </c>
       <c r="R37" t="n">
         <v>1975.198453178347</v>
@@ -7135,10 +7135,10 @@
         <v>1062.363186054321</v>
       </c>
       <c r="X37" t="n">
-        <v>903.1937261963448</v>
+        <v>903.1937261963443</v>
       </c>
       <c r="Y37" t="n">
-        <v>751.2212380928557</v>
+        <v>751.221238092856</v>
       </c>
     </row>
     <row r="38">
@@ -7148,61 +7148,61 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1925.51337246214</v>
+        <v>1925.513372462139</v>
       </c>
       <c r="C38" t="n">
         <v>1625.370946561769</v>
       </c>
       <c r="D38" t="n">
-        <v>1335.92533899506</v>
+        <v>1335.925338995059</v>
       </c>
       <c r="E38" t="n">
         <v>1018.957177436856</v>
       </c>
       <c r="F38" t="n">
-        <v>676.79136368729</v>
+        <v>676.7913636872894</v>
       </c>
       <c r="G38" t="n">
-        <v>329.485680192289</v>
+        <v>329.4856801922886</v>
       </c>
       <c r="H38" t="n">
-        <v>89.93481253402936</v>
+        <v>89.93481253402931</v>
       </c>
       <c r="I38" t="n">
         <v>76.14971665211002</v>
       </c>
       <c r="J38" t="n">
-        <v>344.8139583742028</v>
+        <v>177.4083093538498</v>
       </c>
       <c r="K38" t="n">
-        <v>868.2168169432324</v>
+        <v>700.8111679228793</v>
       </c>
       <c r="L38" t="n">
-        <v>1156.336370582085</v>
+        <v>1402.415323966678</v>
       </c>
       <c r="M38" t="n">
-        <v>1953.612724301975</v>
+        <v>1754.673279528664</v>
       </c>
       <c r="N38" t="n">
-        <v>2507.333261660454</v>
+        <v>2448.921803300103</v>
       </c>
       <c r="O38" t="n">
-        <v>2836.364143234532</v>
+        <v>3154.944864324299</v>
       </c>
       <c r="P38" t="n">
-        <v>3401.264108490335</v>
+        <v>3401.264108490334</v>
       </c>
       <c r="Q38" t="n">
-        <v>3748.258696799038</v>
+        <v>3748.258696799037</v>
       </c>
       <c r="R38" t="n">
-        <v>3807.485832605501</v>
+        <v>3807.4858326055</v>
       </c>
       <c r="S38" t="n">
-        <v>3742.012625862513</v>
+        <v>3742.012625862512</v>
       </c>
       <c r="T38" t="n">
-        <v>3600.244041813158</v>
+        <v>3600.244041813157</v>
       </c>
       <c r="U38" t="n">
         <v>3415.449390176633</v>
@@ -7217,7 +7217,7 @@
         <v>2564.612362421991</v>
       </c>
       <c r="Y38" t="n">
-        <v>2243.293121486221</v>
+        <v>2243.29312148622</v>
       </c>
     </row>
     <row r="39">
@@ -7257,22 +7257,22 @@
         <v>266.7104780195274</v>
       </c>
       <c r="L39" t="n">
-        <v>542.6562119693764</v>
+        <v>513.4756059259914</v>
       </c>
       <c r="M39" t="n">
-        <v>1311.024358361838</v>
+        <v>1281.843752318453</v>
       </c>
       <c r="N39" t="n">
-        <v>1640.886986025871</v>
+        <v>1611.706379982486</v>
       </c>
       <c r="O39" t="n">
-        <v>2310.35074732853</v>
+        <v>1891.246445201183</v>
       </c>
       <c r="P39" t="n">
-        <v>2515.373228110739</v>
+        <v>2296.766701154948</v>
       </c>
       <c r="Q39" t="n">
-        <v>2602.506130567962</v>
+        <v>2591.876118470662</v>
       </c>
       <c r="R39" t="n">
         <v>2602.506130567962</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>638.3928643026571</v>
+        <v>638.392864302657</v>
       </c>
       <c r="C40" t="n">
-        <v>538.2767724147913</v>
+        <v>538.2767724147911</v>
       </c>
       <c r="D40" t="n">
-        <v>456.9802240424966</v>
+        <v>456.9802240424965</v>
       </c>
       <c r="E40" t="n">
         <v>377.8872215001445</v>
@@ -7321,7 +7321,7 @@
         <v>299.8173650422752</v>
       </c>
       <c r="G40" t="n">
-        <v>200.4621344021368</v>
+        <v>200.4621344021369</v>
       </c>
       <c r="H40" t="n">
         <v>118.8642169901215</v>
@@ -7330,13 +7330,13 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J40" t="n">
-        <v>155.9829803443641</v>
+        <v>155.9829803443644</v>
       </c>
       <c r="K40" t="n">
-        <v>373.6189558173199</v>
+        <v>373.6189558173197</v>
       </c>
       <c r="L40" t="n">
-        <v>688.7815720567934</v>
+        <v>688.781572056793</v>
       </c>
       <c r="M40" t="n">
         <v>1027.79888605232</v>
@@ -7351,7 +7351,7 @@
         <v>1911.16945137598</v>
       </c>
       <c r="Q40" t="n">
-        <v>2017.453465576481</v>
+        <v>2017.45346557648</v>
       </c>
       <c r="R40" t="n">
         <v>1975.198453178347</v>
@@ -7372,10 +7372,10 @@
         <v>1062.363186054321</v>
       </c>
       <c r="X40" t="n">
-        <v>903.1937261963448</v>
+        <v>903.1937261963446</v>
       </c>
       <c r="Y40" t="n">
-        <v>751.2212380928559</v>
+        <v>751.2212380928556</v>
       </c>
     </row>
     <row r="41">
@@ -7385,64 +7385,64 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1925.513372462139</v>
+        <v>1925.51337246214</v>
       </c>
       <c r="C41" t="n">
         <v>1625.370946561769</v>
       </c>
       <c r="D41" t="n">
-        <v>1335.925338995059</v>
+        <v>1335.92533899506</v>
       </c>
       <c r="E41" t="n">
         <v>1018.957177436856</v>
       </c>
       <c r="F41" t="n">
-        <v>676.7913636872896</v>
+        <v>676.79136368729</v>
       </c>
       <c r="G41" t="n">
-        <v>329.4856801922888</v>
+        <v>329.485680192289</v>
       </c>
       <c r="H41" t="n">
-        <v>89.93481253402931</v>
+        <v>89.93481253402936</v>
       </c>
       <c r="I41" t="n">
         <v>76.14971665211002</v>
       </c>
       <c r="J41" t="n">
-        <v>344.8139583742028</v>
+        <v>177.4083093538498</v>
       </c>
       <c r="K41" t="n">
-        <v>547.3128584977793</v>
+        <v>700.8111679228793</v>
       </c>
       <c r="L41" t="n">
-        <v>1248.917014541577</v>
+        <v>1402.415323966678</v>
       </c>
       <c r="M41" t="n">
-        <v>2046.193368261468</v>
+        <v>1754.673279528664</v>
       </c>
       <c r="N41" t="n">
-        <v>2841.738489365498</v>
+        <v>2550.218400632695</v>
       </c>
       <c r="O41" t="n">
-        <v>3170.769370939576</v>
+        <v>2879.249282206772</v>
       </c>
       <c r="P41" t="n">
-        <v>3460.491244296798</v>
+        <v>3444.149247462576</v>
       </c>
       <c r="Q41" t="n">
-        <v>3807.485832605501</v>
+        <v>3748.258696799037</v>
       </c>
       <c r="R41" t="n">
-        <v>3807.485832605501</v>
+        <v>3807.4858326055</v>
       </c>
       <c r="S41" t="n">
-        <v>3742.012625862512</v>
+        <v>3742.012625862514</v>
       </c>
       <c r="T41" t="n">
-        <v>3600.244041813157</v>
+        <v>3600.244041813159</v>
       </c>
       <c r="U41" t="n">
-        <v>3415.449390176632</v>
+        <v>3415.449390176633</v>
       </c>
       <c r="V41" t="n">
         <v>3153.206593873103</v>
@@ -7454,7 +7454,7 @@
         <v>2564.612362421991</v>
       </c>
       <c r="Y41" t="n">
-        <v>2243.29312148622</v>
+        <v>2243.293121486221</v>
       </c>
     </row>
     <row r="42">
@@ -7491,16 +7491,16 @@
         <v>117.6407938174676</v>
       </c>
       <c r="K42" t="n">
-        <v>528.5310626619803</v>
+        <v>266.7104780195274</v>
       </c>
       <c r="L42" t="n">
-        <v>775.2961905684443</v>
+        <v>513.4756059259914</v>
       </c>
       <c r="M42" t="n">
-        <v>1082.616323848406</v>
+        <v>1226.399103845682</v>
       </c>
       <c r="N42" t="n">
-        <v>1640.886986025871</v>
+        <v>2030.810682109833</v>
       </c>
       <c r="O42" t="n">
         <v>2310.35074732853</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>638.3928643026572</v>
+        <v>638.3928643026575</v>
       </c>
       <c r="C43" t="n">
-        <v>538.2767724147915</v>
+        <v>538.2767724147916</v>
       </c>
       <c r="D43" t="n">
-        <v>456.9802240424968</v>
+        <v>456.9802240424969</v>
       </c>
       <c r="E43" t="n">
         <v>377.8872215001448</v>
       </c>
       <c r="F43" t="n">
-        <v>299.8173650422756</v>
+        <v>299.8173650422755</v>
       </c>
       <c r="G43" t="n">
-        <v>200.4621344021373</v>
+        <v>200.4621344021371</v>
       </c>
       <c r="H43" t="n">
-        <v>118.8642169901214</v>
+        <v>118.8642169901215</v>
       </c>
       <c r="I43" t="n">
         <v>76.14971665211002</v>
@@ -7570,7 +7570,7 @@
         <v>155.9829803443641</v>
       </c>
       <c r="K43" t="n">
-        <v>373.6189558173198</v>
+        <v>373.6189558173197</v>
       </c>
       <c r="L43" t="n">
         <v>688.7815720567933</v>
@@ -7594,13 +7594,13 @@
         <v>1975.198453178347</v>
       </c>
       <c r="S43" t="n">
-        <v>1844.09853413394</v>
+        <v>1844.098534133941</v>
       </c>
       <c r="T43" t="n">
-        <v>1689.133209963487</v>
+        <v>1689.133209963488</v>
       </c>
       <c r="U43" t="n">
-        <v>1468.824662217086</v>
+        <v>1468.824662217087</v>
       </c>
       <c r="V43" t="n">
         <v>1282.960265051241</v>
@@ -7609,10 +7609,10 @@
         <v>1062.363186054321</v>
       </c>
       <c r="X43" t="n">
-        <v>903.1937261963449</v>
+        <v>903.1937261963451</v>
       </c>
       <c r="Y43" t="n">
-        <v>751.2212380928559</v>
+        <v>751.2212380928561</v>
       </c>
     </row>
     <row r="44">
@@ -7646,37 +7646,37 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J44" t="n">
-        <v>344.8139583742028</v>
+        <v>177.4083093538498</v>
       </c>
       <c r="K44" t="n">
-        <v>868.2168169432324</v>
+        <v>700.8111679228793</v>
       </c>
       <c r="L44" t="n">
-        <v>1156.336370582085</v>
+        <v>1402.415323966678</v>
       </c>
       <c r="M44" t="n">
-        <v>1953.612724301975</v>
+        <v>1754.673279528664</v>
       </c>
       <c r="N44" t="n">
-        <v>2448.921803300104</v>
+        <v>2508.148939106567</v>
       </c>
       <c r="O44" t="n">
-        <v>3154.9448643243</v>
+        <v>3214.172000130763</v>
       </c>
       <c r="P44" t="n">
-        <v>3401.264108490335</v>
+        <v>3460.491244296798</v>
       </c>
       <c r="Q44" t="n">
-        <v>3748.258696799038</v>
+        <v>3807.4858326055</v>
       </c>
       <c r="R44" t="n">
-        <v>3807.485832605501</v>
+        <v>3807.4858326055</v>
       </c>
       <c r="S44" t="n">
-        <v>3742.012625862513</v>
+        <v>3742.012625862512</v>
       </c>
       <c r="T44" t="n">
-        <v>3600.244041813158</v>
+        <v>3600.244041813157</v>
       </c>
       <c r="U44" t="n">
         <v>3415.449390176633</v>
@@ -7728,25 +7728,25 @@
         <v>117.6407938174676</v>
       </c>
       <c r="K45" t="n">
-        <v>528.5310626619803</v>
+        <v>266.7104780195274</v>
       </c>
       <c r="L45" t="n">
-        <v>775.2961905684443</v>
+        <v>513.4756059259914</v>
       </c>
       <c r="M45" t="n">
-        <v>1082.616323848406</v>
+        <v>1018.422588987191</v>
       </c>
       <c r="N45" t="n">
-        <v>1812.204155154042</v>
+        <v>1822.834167251342</v>
       </c>
       <c r="O45" t="n">
-        <v>2091.744220372739</v>
+        <v>2102.374232470039</v>
       </c>
       <c r="P45" t="n">
-        <v>2296.766701154948</v>
+        <v>2307.396713252248</v>
       </c>
       <c r="Q45" t="n">
-        <v>2591.876118470662</v>
+        <v>2602.506130567962</v>
       </c>
       <c r="R45" t="n">
         <v>2602.506130567962</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>638.3928643026568</v>
+        <v>638.3928643026571</v>
       </c>
       <c r="C46" t="n">
-        <v>538.2767724147909</v>
+        <v>538.2767724147913</v>
       </c>
       <c r="D46" t="n">
-        <v>456.9802240424963</v>
+        <v>456.9802240424966</v>
       </c>
       <c r="E46" t="n">
-        <v>377.8872215001443</v>
+        <v>377.8872215001446</v>
       </c>
       <c r="F46" t="n">
-        <v>299.817365042275</v>
+        <v>299.8173650422754</v>
       </c>
       <c r="G46" t="n">
-        <v>200.4621344021367</v>
+        <v>200.4621344021371</v>
       </c>
       <c r="H46" t="n">
-        <v>118.8642169901211</v>
+        <v>118.8642169901215</v>
       </c>
       <c r="I46" t="n">
         <v>76.14971665211002</v>
       </c>
       <c r="J46" t="n">
-        <v>155.9829803443639</v>
+        <v>155.9829803443641</v>
       </c>
       <c r="K46" t="n">
-        <v>373.6189558173197</v>
+        <v>373.6189558173198</v>
       </c>
       <c r="L46" t="n">
-        <v>688.7815720567932</v>
+        <v>688.7815720567933</v>
       </c>
       <c r="M46" t="n">
         <v>1027.79888605232</v>
@@ -7825,31 +7825,31 @@
         <v>1911.16945137598</v>
       </c>
       <c r="Q46" t="n">
-        <v>2017.45346557648</v>
+        <v>2017.453465576481</v>
       </c>
       <c r="R46" t="n">
-        <v>1975.198453178346</v>
+        <v>1975.198453178347</v>
       </c>
       <c r="S46" t="n">
         <v>1844.09853413394</v>
       </c>
       <c r="T46" t="n">
-        <v>1689.133209963486</v>
+        <v>1689.133209963487</v>
       </c>
       <c r="U46" t="n">
         <v>1468.824662217086</v>
       </c>
       <c r="V46" t="n">
-        <v>1282.96026505124</v>
+        <v>1282.960265051241</v>
       </c>
       <c r="W46" t="n">
         <v>1062.363186054321</v>
       </c>
       <c r="X46" t="n">
-        <v>903.1937261963442</v>
+        <v>903.1937261963448</v>
       </c>
       <c r="Y46" t="n">
-        <v>751.2212380928554</v>
+        <v>751.2212380928557</v>
       </c>
     </row>
   </sheetData>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>125.6774978810001</v>
+        <v>226.2857655321398</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>137.5742284867207</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273546</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>108.2245426988757</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,19 +8301,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>434.0896122856909</v>
+        <v>335.3058926067372</v>
       </c>
       <c r="N6" t="n">
-        <v>421.9761166209647</v>
+        <v>421.9761166209643</v>
       </c>
       <c r="O6" t="n">
-        <v>110.0490415158762</v>
+        <v>95.72265612446169</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>114.8336753070146</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992659</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8775,10 +8775,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>285.1031356539336</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>369.0893880493734</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8933,7 +8933,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,22 +9003,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>38.86002301949893</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>29.47535963978225</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>124.340078086323</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>22.04402060665578</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9483,25 +9483,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>165.9802687929767</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>213.2603911806632</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9726,19 +9726,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>20.63789864135481</v>
+        <v>295.3773510571274</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9957,22 +9957,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>308.1251096272039</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>15.83804904622872</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10121,7 +10121,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>93.88676507992591</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>38.86002301949951</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504515</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,19 +10437,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>91.23759968302124</v>
       </c>
       <c r="P33" t="n">
-        <v>93.88676507992642</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10589,13 +10589,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>146.2448040929318</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>165.9305139544658</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>158.8724419039337</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10820,25 +10820,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>193.0796681033464</v>
+        <v>335.0271291265386</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10905,7 +10905,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>29.47535963978277</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>202.5230052237941</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,16 +11057,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11075,13 +11075,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>43.84103958705697</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>168.9966684657218</v>
       </c>
       <c r="R41" t="n">
-        <v>5.891030169484367</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,19 +11139,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>409.7003683229589</v>
       </c>
       <c r="N42" t="n">
-        <v>230.715186377204</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11294,19 +11294,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>134.0781950120837</v>
+        <v>394.8525188300371</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>5.891030169484367</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,16 +11376,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>199.6230805871093</v>
       </c>
       <c r="N45" t="n">
-        <v>403.7628319612152</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23422,13 +23422,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23464,10 +23464,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>121.2740412742715</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>75.26883114644335</v>
       </c>
     </row>
     <row r="14">
@@ -23662,10 +23662,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>74.51810729938427</v>
+        <v>75.26883114644352</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>2.963168004552835</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>154.0447823209452</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,16 +24175,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>145.904401980002</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>48.84084321165264</v>
       </c>
     </row>
     <row r="23">
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>161.430894639085</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>148.8457355557755</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>130.21438747536</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>128.0328771037168</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>127.0199624800789</v>
       </c>
       <c r="G25" t="n">
         <v>148.0924829205252</v>
@@ -24382,7 +24382,7 @@
         <v>130.5127428246838</v>
       </c>
       <c r="I25" t="n">
-        <v>92.01815992141962</v>
+        <v>92.01815992141964</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>91.56326686094044</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,19 +24418,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>267.836266855725</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>233.7365577809756</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>21.67912101919034</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>119.4549230720578</v>
       </c>
       <c r="Y25" t="n">
-        <v>200.1835678092424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>161.4308946390849</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>148.8457355557755</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>130.21438747536</v>
       </c>
       <c r="E28" t="n">
         <v>128.0328771037168</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>127.0199624800789</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>148.0924829205252</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>130.5127428246838</v>
       </c>
       <c r="I28" t="n">
-        <v>92.01815992141962</v>
+        <v>92.01815992141964</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,22 +24652,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>129.8111063215474</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>233.7365577809756</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>189.3225508502025</v>
       </c>
       <c r="Y28" t="n">
-        <v>200.1835678092424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>161.4308946390849</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>148.8457355557755</v>
       </c>
       <c r="D31" t="n">
-        <v>0.05161613211384697</v>
+        <v>130.21438747536</v>
       </c>
       <c r="E31" t="n">
         <v>128.0328771037168</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>127.0199624800789</v>
       </c>
       <c r="G31" t="n">
         <v>148.0924829205252</v>
@@ -24856,7 +24856,7 @@
         <v>130.5127428246838</v>
       </c>
       <c r="I31" t="n">
-        <v>92.01815992141962</v>
+        <v>92.01815992141964</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>91.56326686094044</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>233.7365577809756</v>
+        <v>80.70224990190034</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1073136.517037187</v>
+        <v>1073136.517037186</v>
       </c>
     </row>
     <row r="11">
@@ -26314,46 +26314,46 @@
         <v>369468.7964389272</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389274</v>
+        <v>369468.7964389275</v>
       </c>
       <c r="D2" t="n">
         <v>369468.7964389274</v>
       </c>
       <c r="E2" t="n">
-        <v>351926.153763938</v>
+        <v>351926.1537639381</v>
       </c>
       <c r="F2" t="n">
         <v>351926.1537639379</v>
       </c>
       <c r="G2" t="n">
-        <v>351926.1537639378</v>
+        <v>351926.1537639381</v>
       </c>
       <c r="H2" t="n">
-        <v>351926.1537639381</v>
+        <v>351926.1537639379</v>
       </c>
       <c r="I2" t="n">
         <v>356664.0770462066</v>
       </c>
       <c r="J2" t="n">
-        <v>356664.0770462067</v>
+        <v>356664.0770462066</v>
       </c>
       <c r="K2" t="n">
         <v>356664.0770462065</v>
       </c>
       <c r="L2" t="n">
-        <v>369468.7964389281</v>
+        <v>369468.7964389277</v>
       </c>
       <c r="M2" t="n">
+        <v>369468.7964389277</v>
+      </c>
+      <c r="N2" t="n">
+        <v>369468.7964389276</v>
+      </c>
+      <c r="O2" t="n">
         <v>369468.7964389275</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>369468.7964389275</v>
-      </c>
-      <c r="O2" t="n">
-        <v>369468.7964389276</v>
-      </c>
-      <c r="P2" t="n">
-        <v>369468.7964389276</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126293.341446813</v>
+        <v>126293.3414468129</v>
       </c>
       <c r="C3" t="n">
-        <v>72744.75223794764</v>
+        <v>72744.75223794678</v>
       </c>
       <c r="D3" t="n">
-        <v>348321.8962936399</v>
+        <v>348321.8962936407</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>14720.86843428189</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113916</v>
+        <v>72254.69487113903</v>
       </c>
       <c r="K3" t="n">
-        <v>16913.40047303596</v>
+        <v>16913.40047303593</v>
       </c>
       <c r="L3" t="n">
-        <v>123915.6258741631</v>
+        <v>123915.6258741632</v>
       </c>
       <c r="M3" t="n">
-        <v>69175.08933762896</v>
+        <v>69175.08933762902</v>
       </c>
       <c r="N3" t="n">
-        <v>14720.86843428186</v>
+        <v>14720.86843428191</v>
       </c>
       <c r="O3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>316926.9684369123</v>
       </c>
       <c r="C4" t="n">
-        <v>296337.3092211187</v>
+        <v>296337.3092211189</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
@@ -26430,7 +26430,7 @@
         <v>43561.42148316557</v>
       </c>
       <c r="G4" t="n">
-        <v>43561.42148316554</v>
+        <v>43561.42148316552</v>
       </c>
       <c r="H4" t="n">
         <v>43561.42148316554</v>
@@ -26439,25 +26439,25 @@
         <v>49616.2956545644</v>
       </c>
       <c r="J4" t="n">
+        <v>49616.29565456445</v>
+      </c>
+      <c r="K4" t="n">
         <v>49616.29565456443</v>
       </c>
-      <c r="K4" t="n">
-        <v>49616.29565456441</v>
-      </c>
       <c r="L4" t="n">
-        <v>65980.20872448606</v>
+        <v>65980.20872448604</v>
       </c>
       <c r="M4" t="n">
-        <v>99837.12979766786</v>
+        <v>99837.12979766782</v>
       </c>
       <c r="N4" t="n">
+        <v>99837.12979766783</v>
+      </c>
+      <c r="O4" t="n">
         <v>99837.12979766788</v>
       </c>
-      <c r="O4" t="n">
-        <v>99837.12979766786</v>
-      </c>
       <c r="P4" t="n">
-        <v>99837.12979766785</v>
+        <v>99837.12979766788</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>56410.20653049169</v>
+        <v>56410.20653049162</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26491,10 +26491,10 @@
         <v>93534.28680921868</v>
       </c>
       <c r="J5" t="n">
+        <v>93534.28680921867</v>
+      </c>
+      <c r="K5" t="n">
         <v>93534.2868092187</v>
-      </c>
-      <c r="K5" t="n">
-        <v>93534.28680921868</v>
       </c>
       <c r="L5" t="n">
         <v>97715.1058200254</v>
@@ -26506,10 +26506,10 @@
         <v>81703.90096581174</v>
       </c>
       <c r="O5" t="n">
-        <v>81703.90096581176</v>
+        <v>81703.90096581174</v>
       </c>
       <c r="P5" t="n">
-        <v>81703.90096581176</v>
+        <v>81703.90096581174</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-124932.8929615782</v>
       </c>
       <c r="C6" t="n">
-        <v>-56023.47155063062</v>
+        <v>-56023.47155062985</v>
       </c>
       <c r="D6" t="n">
-        <v>-253918.7743105516</v>
+        <v>-253918.7743105525</v>
       </c>
       <c r="E6" t="n">
-        <v>-308782.6301448402</v>
+        <v>-308880.0892708124</v>
       </c>
       <c r="F6" t="n">
-        <v>216377.4063320557</v>
+        <v>216279.9472060835</v>
       </c>
       <c r="G6" t="n">
-        <v>216377.4063320557</v>
+        <v>216279.9472060837</v>
       </c>
       <c r="H6" t="n">
-        <v>216377.4063320559</v>
+        <v>216279.9472060836</v>
       </c>
       <c r="I6" t="n">
-        <v>198792.6261481416</v>
+        <v>198721.4888181821</v>
       </c>
       <c r="J6" t="n">
-        <v>141258.7997112844</v>
+        <v>141187.6623813249</v>
       </c>
       <c r="K6" t="n">
-        <v>196600.0941093875</v>
+        <v>196528.9567794278</v>
       </c>
       <c r="L6" t="n">
-        <v>81857.85602025359</v>
+        <v>81857.85602025306</v>
       </c>
       <c r="M6" t="n">
-        <v>118752.6763378189</v>
+        <v>118752.6763378191</v>
       </c>
       <c r="N6" t="n">
-        <v>173206.8972411661</v>
+        <v>173206.8972411662</v>
       </c>
       <c r="O6" t="n">
-        <v>187927.765675448</v>
+        <v>187927.7656754478</v>
       </c>
       <c r="P6" t="n">
-        <v>187927.7656754481</v>
+        <v>187927.7656754478</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>18.40108554285236</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="N2" t="n">
-        <v>68.13189012964062</v>
-      </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>91.59216845020386</v>
+        <v>91.59216845020316</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>341.8733101690336</v>
+        <v>341.8733101690328</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26820,16 +26820,16 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>951.8714581513752</v>
+        <v>951.8714581513754</v>
       </c>
       <c r="N4" t="n">
-        <v>951.8714581513752</v>
+        <v>951.8714581513751</v>
       </c>
       <c r="O4" t="n">
-        <v>951.8714581513752</v>
+        <v>951.8714581513751</v>
       </c>
       <c r="P4" t="n">
-        <v>951.8714581513752</v>
+        <v>951.8714581513751</v>
       </c>
     </row>
   </sheetData>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>49.73080458678833</v>
+        <v>49.73080458678831</v>
       </c>
       <c r="M2" t="n">
-        <v>-2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18.40108554285233</v>
+        <v>18.40108554285239</v>
       </c>
       <c r="O2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>56.57090773107852</v>
+        <v>56.57090773107787</v>
       </c>
       <c r="D3" t="n">
-        <v>286.1514957668828</v>
+        <v>286.1514957668835</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>65.71679646667813</v>
+        <v>65.71679646667734</v>
       </c>
       <c r="D4" t="n">
-        <v>332.413962585522</v>
+        <v>332.4139625855228</v>
       </c>
       <c r="E4" t="n">
         <v>540.9263704990175</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023557</v>
+        <v>276.1565137023552</v>
       </c>
       <c r="K4" t="n">
-        <v>65.71679646667791</v>
+        <v>65.71679646667779</v>
       </c>
       <c r="L4" t="n">
-        <v>332.4139625855222</v>
+        <v>332.4139625855228</v>
       </c>
       <c r="M4" t="n">
-        <v>277.5841853968194</v>
+        <v>277.5841853968195</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>65.71679646667813</v>
+        <v>65.71679646667734</v>
       </c>
       <c r="L4" t="n">
-        <v>332.413962585522</v>
+        <v>332.4139625855228</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990175</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,13 +27385,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>343.225180401363</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>139.005434824964</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>338.0329468943008</v>
@@ -27427,22 +27427,22 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>51.59574476777948</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>309.030022330263</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>93.57458697611361</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>104.2314878831818</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27512,16 +27512,16 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>127.7196242995538</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27582,13 +27582,13 @@
         <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
-        <v>174.4537986637794</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
-        <v>227.6757534850358</v>
+        <v>226.9983582009374</v>
       </c>
       <c r="U4" t="n">
         <v>286.3155846423218</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>111.3918043887131</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>12.80973145164933</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>281.4378490121397</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>65.00273557267866</v>
       </c>
       <c r="G5" t="n">
-        <v>302.8479944857335</v>
+        <v>73.0612176236894</v>
       </c>
       <c r="H5" t="n">
-        <v>335.7038742961062</v>
+        <v>335.7038742961063</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>196.2804842470835</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>126.7395639656316</v>
+        <v>126.7395639656318</v>
       </c>
       <c r="S5" t="n">
-        <v>200.6294905367618</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.484011504269</v>
@@ -27673,16 +27673,16 @@
         <v>251.3161961300435</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>7.367658548380234</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>44.36462848701996</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>5.535638687562169</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27707,13 +27707,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>40.48950171656836</v>
+        <v>137.1465075933366</v>
       </c>
       <c r="H6" t="n">
         <v>110.3327465485026</v>
       </c>
       <c r="I6" t="n">
-        <v>82.61362792373488</v>
+        <v>82.61362792373494</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>87.92595927923665</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>168.0238047511339</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.3706418758996</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27795,10 +27795,10 @@
         <v>150.4834766775325</v>
       </c>
       <c r="J7" t="n">
-        <v>81.68192939475088</v>
+        <v>81.68192939475097</v>
       </c>
       <c r="K7" t="n">
-        <v>3.08018178008605</v>
+        <v>3.080181780086196</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>72.33162581571361</v>
+        <v>72.33162581571371</v>
       </c>
       <c r="R7" t="n">
         <v>169.866918177912</v>
@@ -27831,7 +27831,7 @@
         <v>286.3100202907417</v>
       </c>
       <c r="V7" t="n">
-        <v>4.944119571502029</v>
+        <v>4.944119571502938</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,10 +27853,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>257.3944777431475</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>259.3273644978283</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,13 +28014,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>16.63754732114094</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>139.1535023362231</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-6.579990433327139e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C35" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D35" t="n">
-        <v>68.13189012964085</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E35" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F35" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G35" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H35" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I35" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T35" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U35" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V35" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W35" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X35" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y35" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C38" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D38" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E38" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F38" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G38" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H38" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I38" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T38" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U38" t="n">
-        <v>68.13189012964168</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V38" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W38" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X38" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y38" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C41" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D41" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E41" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F41" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G41" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H41" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I41" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964193</v>
       </c>
       <c r="T41" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U41" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V41" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W41" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X41" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y41" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C44" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D44" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E44" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F44" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G44" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H44" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I44" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T44" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U44" t="n">
-        <v>68.13189012964077</v>
+        <v>68.13189012964168</v>
       </c>
       <c r="V44" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W44" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X44" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y44" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H2" t="n">
-        <v>1.4418552214663</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I2" t="n">
-        <v>5.42776745276012</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884599</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L2" t="n">
-        <v>22.21755819470702</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M2" t="n">
-        <v>24.72131435677233</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840334</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081218</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411507</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796963</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R2" t="n">
-        <v>8.84383625587038</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847513</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T2" t="n">
-        <v>0.616303794162698</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0753287494713262</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520189</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727679</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779991</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335885</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358773</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M3" t="n">
-        <v>19.08658709192331</v>
+        <v>19.08658709192328</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833409</v>
+        <v>19.59175225833406</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689049</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650263</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164377</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263571</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504676</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008305</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006208</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623704</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I4" t="n">
-        <v>1.899185745227322</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174389</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170847</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894685</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M4" t="n">
-        <v>9.89953440294882</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394052</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179687</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938414</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587926</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R4" t="n">
-        <v>2.839592713390063</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025627</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457197</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094299</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3682097224128795</v>
+        <v>0.3682097224128767</v>
       </c>
       <c r="H5" t="n">
-        <v>3.770927819660904</v>
+        <v>3.770927819660875</v>
       </c>
       <c r="I5" t="n">
-        <v>14.19540532332255</v>
+        <v>14.19540532332245</v>
       </c>
       <c r="J5" t="n">
-        <v>31.25133992764016</v>
+        <v>31.25133992763993</v>
       </c>
       <c r="K5" t="n">
-        <v>46.83765747737736</v>
+        <v>46.83765747737701</v>
       </c>
       <c r="L5" t="n">
-        <v>58.10625576967054</v>
+        <v>58.1062557696701</v>
       </c>
       <c r="M5" t="n">
-        <v>64.65440542063058</v>
+        <v>64.6544054206301</v>
       </c>
       <c r="N5" t="n">
-        <v>65.70058129443618</v>
+        <v>65.70058129443568</v>
       </c>
       <c r="O5" t="n">
-        <v>62.03919586719311</v>
+        <v>62.03919586719264</v>
       </c>
       <c r="P5" t="n">
-        <v>52.94901834512513</v>
+        <v>52.94901834512473</v>
       </c>
       <c r="Q5" t="n">
-        <v>39.76250766121387</v>
+        <v>39.76250766121357</v>
       </c>
       <c r="R5" t="n">
-        <v>23.12955397551806</v>
+        <v>23.12955397551789</v>
       </c>
       <c r="S5" t="n">
-        <v>8.390579049483501</v>
+        <v>8.390579049483437</v>
       </c>
       <c r="T5" t="n">
-        <v>1.611838059862381</v>
+        <v>1.611838059862369</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02945677779303036</v>
+        <v>0.02945677779303013</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1970095698740234</v>
+        <v>0.1970095698740219</v>
       </c>
       <c r="H6" t="n">
-        <v>1.902697687993858</v>
+        <v>1.902697687993843</v>
       </c>
       <c r="I6" t="n">
-        <v>6.783004927680192</v>
+        <v>6.783004927680141</v>
       </c>
       <c r="J6" t="n">
-        <v>18.61308396779096</v>
+        <v>18.61308396779082</v>
       </c>
       <c r="K6" t="n">
-        <v>31.81272514935053</v>
+        <v>31.81272514935028</v>
       </c>
       <c r="L6" t="n">
-        <v>42.77613489742776</v>
+        <v>42.77613489742743</v>
       </c>
       <c r="M6" t="n">
-        <v>49.91773180536109</v>
+        <v>49.91773180536072</v>
       </c>
       <c r="N6" t="n">
-        <v>51.23890563140225</v>
+        <v>51.23890563140186</v>
       </c>
       <c r="O6" t="n">
-        <v>46.8735883199831</v>
+        <v>46.87358831998274</v>
       </c>
       <c r="P6" t="n">
-        <v>37.62018707532996</v>
+        <v>37.62018707532967</v>
       </c>
       <c r="Q6" t="n">
-        <v>25.14809877900692</v>
+        <v>25.14809877900673</v>
       </c>
       <c r="R6" t="n">
-        <v>12.23187487340648</v>
+        <v>12.23187487340638</v>
       </c>
       <c r="S6" t="n">
-        <v>3.659366352703897</v>
+        <v>3.659366352703869</v>
       </c>
       <c r="T6" t="n">
-        <v>0.7940868189220501</v>
+        <v>0.7940868189220441</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0129611559127647</v>
+        <v>0.0129611559127646</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1651662054020069</v>
+        <v>0.1651662054020057</v>
       </c>
       <c r="H7" t="n">
-        <v>1.468477717119663</v>
+        <v>1.468477717119652</v>
       </c>
       <c r="I7" t="n">
-        <v>4.96699824972581</v>
+        <v>4.966998249725773</v>
       </c>
       <c r="J7" t="n">
-        <v>11.67725072192189</v>
+        <v>11.6772507219218</v>
       </c>
       <c r="K7" t="n">
-        <v>19.1893100457968</v>
+        <v>19.18931004579666</v>
       </c>
       <c r="L7" t="n">
-        <v>24.55571021040383</v>
+        <v>24.55571021040365</v>
       </c>
       <c r="M7" t="n">
-        <v>25.89055345224368</v>
+        <v>25.89055345224349</v>
       </c>
       <c r="N7" t="n">
-        <v>25.27493395938168</v>
+        <v>25.27493395938149</v>
       </c>
       <c r="O7" t="n">
-        <v>23.34549237809459</v>
+        <v>23.34549237809441</v>
       </c>
       <c r="P7" t="n">
-        <v>19.97610178789363</v>
+        <v>19.97610178789348</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.83041743598078</v>
+        <v>13.83041743598068</v>
       </c>
       <c r="R7" t="n">
-        <v>7.42647319925751</v>
+        <v>7.426473199257454</v>
       </c>
       <c r="S7" t="n">
-        <v>2.87839650686952</v>
+        <v>2.878396506869498</v>
       </c>
       <c r="T7" t="n">
-        <v>0.7057101503540295</v>
+        <v>0.7057101503540241</v>
       </c>
       <c r="U7" t="n">
-        <v>0.009009065749200389</v>
+        <v>0.00900906574920032</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -34714,10 +34714,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503282</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424828</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522134</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>100.6082676511396</v>
       </c>
       <c r="L3" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>14.52678165662568</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>269.1887005891756</v>
+        <v>269.1887005891755</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821096</v>
+        <v>198.8728484821095</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.71116244199196</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721082</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M4" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062265</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421936</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831902</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>19.30205057302765</v>
+        <v>19.30205057302741</v>
       </c>
       <c r="K5" t="n">
-        <v>150.8932190035616</v>
+        <v>150.8932190035612</v>
       </c>
       <c r="L5" t="n">
-        <v>240.0010553501338</v>
+        <v>240.0010553501333</v>
       </c>
       <c r="M5" t="n">
-        <v>283.8217056861903</v>
+        <v>283.8217056861898</v>
       </c>
       <c r="N5" t="n">
-        <v>273.6344421098294</v>
+        <v>273.6344421098289</v>
       </c>
       <c r="O5" t="n">
-        <v>212.7411657082517</v>
+        <v>212.7411657082513</v>
       </c>
       <c r="P5" t="n">
-        <v>143.5147307613382</v>
+        <v>143.5147307613378</v>
       </c>
       <c r="Q5" t="n">
-        <v>29.77180844666907</v>
+        <v>29.77180844666876</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>17.86649264153296</v>
       </c>
       <c r="K6" t="n">
-        <v>158.4365231875701</v>
+        <v>158.4365231875699</v>
       </c>
       <c r="L6" t="n">
-        <v>275.0621004210128</v>
+        <v>275.0621004210124</v>
       </c>
       <c r="M6" t="n">
-        <v>341.8733101690336</v>
+        <v>243.0895904900796</v>
       </c>
       <c r="N6" t="n">
-        <v>341.8733101690336</v>
+        <v>341.8733101690328</v>
       </c>
       <c r="O6" t="n">
-        <v>14.32638539141486</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>222.1085483009369</v>
+        <v>222.1085483009366</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>95.24361242883431</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>52.14573547071997</v>
+        <v>52.14573547071979</v>
       </c>
       <c r="M7" t="n">
-        <v>65.47443041408427</v>
+        <v>65.47443041408408</v>
       </c>
       <c r="N7" t="n">
-        <v>69.40710633861028</v>
+        <v>69.40710633861008</v>
       </c>
       <c r="O7" t="n">
-        <v>47.93062029213426</v>
+        <v>47.93062029213409</v>
       </c>
       <c r="P7" t="n">
-        <v>17.25466105278712</v>
+        <v>17.25466105278697</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328935</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35495,10 +35495,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>595.5275127043998</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>702.2839614473862</v>
       </c>
       <c r="O12" t="n">
         <v>676.2260215178376</v>
@@ -35507,7 +35507,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>80.77020197440558</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>278.7330645958065</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315246</v>
@@ -35896,7 +35896,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P17" t="n">
         <v>570.6060255109123</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>274.9155166742622</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>229.1374355381804</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303341</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
@@ -36203,25 +36203,25 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>415.237973749001</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>546.454964578676</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36446,19 +36446,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>353.8324720393676</v>
+        <v>628.5719244551402</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>30.90885570841788</v>
+        <v>30.90885570841787</v>
       </c>
       <c r="K25" t="n">
         <v>170.1035140727629</v>
@@ -36534,7 +36534,7 @@
         <v>196.7846861546531</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.62678551472711</v>
+        <v>57.6267855147271</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36613,7 +36613,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
         <v>59.82538970349808</v>
@@ -36677,22 +36677,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>618.5494866776701</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>103.8510818313028</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>30.90885570841788</v>
+        <v>30.90885570841787</v>
       </c>
       <c r="K28" t="n">
         <v>170.1035140727629</v>
@@ -36771,7 +36771,7 @@
         <v>196.7846861546531</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.62678551472711</v>
+        <v>57.6267855147271</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O29" t="n">
         <v>713.1546070951472</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>404.3111421303921</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>126.8730558045736</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>30.90885570841788</v>
+        <v>30.90885570841787</v>
       </c>
       <c r="K31" t="n">
         <v>170.1035140727629</v>
@@ -37008,7 +37008,7 @@
         <v>196.7846861546531</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.62678551472711</v>
+        <v>57.6267855147271</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221116</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
@@ -37157,19 +37157,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>373.6013019241294</v>
       </c>
       <c r="P33" t="n">
-        <v>300.9801800114511</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37309,13 +37309,13 @@
         <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>437.2746562533885</v>
       </c>
       <c r="M35" t="n">
         <v>355.8161167292791</v>
       </c>
       <c r="N35" t="n">
-        <v>532.1645199505934</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>408.130146859958</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>570.7728848187833</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37540,25 +37540,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>102.2814067694341</v>
       </c>
       <c r="K38" t="n">
         <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>291.0298521604568</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>355.8161167292791</v>
       </c>
       <c r="N38" t="n">
-        <v>559.313674099474</v>
+        <v>701.2611351226662</v>
       </c>
       <c r="O38" t="n">
-        <v>332.3544258324018</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>248.8073173394296</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502048</v>
@@ -37625,7 +37625,7 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>278.733064595807</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>776.1294408004661</v>
@@ -37634,16 +37634,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>409.6164201553188</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>102.2814067694341</v>
       </c>
       <c r="K41" t="n">
-        <v>204.5443435591682</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>355.8161167292791</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37795,13 +37795,13 @@
         <v>332.3544258324018</v>
       </c>
       <c r="P41" t="n">
-        <v>292.6483569264866</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>307.1812619560219</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,19 +37859,19 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734251</v>
       </c>
       <c r="N42" t="n">
-        <v>563.9097597752168</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
         <v>207.0934149315246</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>102.2814067694341</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>291.0298521604568</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>355.8161167292791</v>
       </c>
       <c r="N44" t="n">
-        <v>500.3122010082114</v>
+        <v>761.0865248261648</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,16 +38096,16 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>510.0474576375755</v>
       </c>
       <c r="N45" t="n">
-        <v>736.957405359228</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
@@ -38117,7 +38117,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
